--- a/LoanOfficer-A/2023/4 Loanee-Mona.xlsx
+++ b/LoanOfficer-A/2023/4 Loanee-Mona.xlsx
@@ -776,8 +776,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13:L22"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>8000</v>
+        <v>8900</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1777,9 +1777,15 @@
       <c r="I23" s="1">
         <v>81</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="1"/>
+      <c r="J23" s="3">
+        <v>45307</v>
+      </c>
+      <c r="K23" s="4">
+        <v>100</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
       <c r="M23" s="1">
         <v>111</v>
       </c>
@@ -1815,9 +1821,15 @@
       <c r="I24" s="1">
         <v>82</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="1"/>
+      <c r="J24" s="3">
+        <v>45308</v>
+      </c>
+      <c r="K24" s="4">
+        <v>100</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
       <c r="M24" s="1">
         <v>112</v>
       </c>
@@ -1853,9 +1865,15 @@
       <c r="I25" s="1">
         <v>83</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="1"/>
+      <c r="J25" s="3">
+        <v>45309</v>
+      </c>
+      <c r="K25" s="4">
+        <v>100</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
       <c r="M25" s="1">
         <v>113</v>
       </c>
@@ -1891,9 +1909,15 @@
       <c r="I26" s="1">
         <v>84</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="1"/>
+      <c r="J26" s="3">
+        <v>45310</v>
+      </c>
+      <c r="K26" s="4">
+        <v>100</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
       <c r="M26" s="1">
         <v>114</v>
       </c>
@@ -1929,9 +1953,15 @@
       <c r="I27" s="1">
         <v>85</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="1"/>
+      <c r="J27" s="3">
+        <v>45311</v>
+      </c>
+      <c r="K27" s="4">
+        <v>100</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
       <c r="M27" s="1">
         <v>115</v>
       </c>
@@ -1967,9 +1997,15 @@
       <c r="I28" s="1">
         <v>86</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="1"/>
+      <c r="J28" s="3">
+        <v>45312</v>
+      </c>
+      <c r="K28" s="4">
+        <v>100</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
       <c r="M28" s="1">
         <v>116</v>
       </c>
@@ -2005,9 +2041,15 @@
       <c r="I29" s="1">
         <v>87</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="1"/>
+      <c r="J29" s="3">
+        <v>45313</v>
+      </c>
+      <c r="K29" s="4">
+        <v>100</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
       <c r="M29" s="1">
         <v>117</v>
       </c>
@@ -2043,9 +2085,15 @@
       <c r="I30" s="1">
         <v>88</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="1"/>
+      <c r="J30" s="3">
+        <v>45314</v>
+      </c>
+      <c r="K30" s="4">
+        <v>100</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
       <c r="M30" s="1">
         <v>118</v>
       </c>
@@ -2081,9 +2129,15 @@
       <c r="I31" s="1">
         <v>89</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="1"/>
+      <c r="J31" s="3">
+        <v>45315</v>
+      </c>
+      <c r="K31" s="4">
+        <v>100</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
       <c r="M31" s="1">
         <v>119</v>
       </c>

--- a/LoanOfficer-A/2023/4 Loanee-Mona.xlsx
+++ b/LoanOfficer-A/2023/4 Loanee-Mona.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,8 +776,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24:L31"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -909,9 +909,15 @@
       <c r="M3" s="1">
         <v>91</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="1"/>
+      <c r="N3" s="3">
+        <v>45317</v>
+      </c>
+      <c r="O3" s="4">
+        <v>100</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" customHeight="1">
       <c r="A4" s="1">
@@ -953,9 +959,15 @@
       <c r="M4" s="1">
         <v>92</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="1"/>
+      <c r="N4" s="3">
+        <v>45318</v>
+      </c>
+      <c r="O4" s="4">
+        <v>100</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1">
       <c r="A5" s="1">
@@ -997,9 +1009,15 @@
       <c r="M5" s="1">
         <v>93</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="1"/>
+      <c r="N5" s="3">
+        <v>45319</v>
+      </c>
+      <c r="O5" s="4">
+        <v>100</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1">
       <c r="A6" s="1">
@@ -1041,9 +1059,15 @@
       <c r="M6" s="1">
         <v>94</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="1"/>
+      <c r="N6" s="3">
+        <v>45320</v>
+      </c>
+      <c r="O6" s="4">
+        <v>100</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1">
       <c r="A7" s="1">
@@ -1085,9 +1109,15 @@
       <c r="M7" s="1">
         <v>95</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="1"/>
+      <c r="N7" s="3">
+        <v>45321</v>
+      </c>
+      <c r="O7" s="4">
+        <v>100</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
       <c r="A8" s="1">
@@ -2173,9 +2203,15 @@
       <c r="I32" s="1">
         <v>90</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="1"/>
+      <c r="J32" s="3">
+        <v>45316</v>
+      </c>
+      <c r="K32" s="4">
+        <v>100</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
       <c r="M32" s="1">
         <v>120</v>
       </c>

--- a/LoanOfficer-A/2023/4 Loanee-Mona.xlsx
+++ b/LoanOfficer-A/2023/4 Loanee-Mona.xlsx
@@ -327,7 +327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -605,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -776,8 +776,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +823,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1159,9 +1159,15 @@
       <c r="M8" s="1">
         <v>96</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="1"/>
+      <c r="N8" s="3">
+        <v>45322</v>
+      </c>
+      <c r="O8" s="4">
+        <v>100</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
       <c r="A9" s="1">
@@ -1203,9 +1209,15 @@
       <c r="M9" s="1">
         <v>97</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="1"/>
+      <c r="N9" s="3">
+        <v>45323</v>
+      </c>
+      <c r="O9" s="4">
+        <v>100</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1">
       <c r="A10" s="1">
@@ -1247,9 +1259,15 @@
       <c r="M10" s="1">
         <v>98</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="1"/>
+      <c r="N10" s="3">
+        <v>45324</v>
+      </c>
+      <c r="O10" s="4">
+        <v>100</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1">
       <c r="A11" s="1">
@@ -1291,9 +1309,15 @@
       <c r="M11" s="1">
         <v>99</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="1"/>
+      <c r="N11" s="3">
+        <v>45325</v>
+      </c>
+      <c r="O11" s="4">
+        <v>100</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="1">
